--- a/convenciones/convenciones.xlsx
+++ b/convenciones/convenciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/ ANTIGRAVITY/convenciones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/panel de campañas/convenciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAB5D67-7794-AF48-AD65-435784402829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F1F66-6647-5D48-AD0F-9470EA005A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E7F63129-DA72-1A4F-A9C5-6A9DFB66AE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Asesor</t>
   </si>
@@ -131,9 +131,6 @@
     <t>JOSE ALBERTO CORONADO ROSAS</t>
   </si>
   <si>
-    <t>LINDA TANIA MIROSLAVA ENRIQUEZ PRECIADO</t>
-  </si>
-  <si>
     <t>JOCELYN URIBE VARGAS</t>
   </si>
   <si>
@@ -146,12 +143,6 @@
     <t>MARIA TERESA ASENCIO LOZANO</t>
   </si>
   <si>
-    <t>MARIA FERNANDA RIOS BERNAL</t>
-  </si>
-  <si>
-    <t>TIARE DE LA CRUZ DZIB CABRERA</t>
-  </si>
-  <si>
     <t>MARIO ALFONSO SARMIENTO OROZCO</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
     <t>Lugar_28</t>
   </si>
   <si>
-    <t>Diciembre</t>
-  </si>
-  <si>
     <t>Comision_Vida</t>
   </si>
   <si>
@@ -225,18 +213,20 @@
   </si>
   <si>
     <t>ANDREA CELESTE IBAÐEZ RINCON</t>
+  </si>
+  <si>
+    <t>febrero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,12 +298,6 @@
       <sz val="10"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -424,7 +408,7 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -476,32 +460,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -510,7 +468,204 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{4142601D-8D65-A946-BE06-978A83E2BBAD}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="hair">
+          <color rgb="FF002060"/>
+        </left>
+        <right style="hair">
+          <color rgb="FF002060"/>
+        </right>
+        <top style="hair">
+          <color rgb="FF002060"/>
+        </top>
+        <bottom style="hair">
+          <color rgb="FF002060"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1040,562 +1195,6 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1641,601 +1240,87 @@
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
         </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
+        <right style="thin">
+          <color indexed="64"/>
         </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
+        <top style="thin">
+          <color indexed="64"/>
         </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
       </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="10"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
       </font>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color indexed="64"/>
-        </left>
-        <right style="hair">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom style="hair">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
+          <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </right>
-        <top style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7" tint="0.79998168889431442"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color rgb="FF002060"/>
-        </left>
-        <right style="hair">
-          <color rgb="FF002060"/>
-        </right>
-        <top style="hair">
-          <color rgb="FF002060"/>
-        </top>
-        <bottom style="hair">
-          <color rgb="FF002060"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -2252,25 +1337,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863A0A99-E0E5-9246-AEF7-CE7A3122F955}" name="Tabla1354" displayName="Tabla1354" ref="A1:M50" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:M50" xr:uid="{863A0A99-E0E5-9246-AEF7-CE7A3122F955}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{863A0A99-E0E5-9246-AEF7-CE7A3122F955}" name="Tabla1354" displayName="Tabla1354" ref="A1:M47" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A1:M47" xr:uid="{863A0A99-E0E5-9246-AEF7-CE7A3122F955}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I39">
     <sortCondition descending="1" ref="E1:E39"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{A51809F4-11CD-5745-A6AB-24C55BC64FFF}" name="Asesor" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{A433C79F-A4AE-D842-BE12-B588DDE1597D}" name="Clave" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{31682EAB-2814-9F47-B8ED-DB112E423B4C}" name="Fecha_Corte" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{324DE397-CFDB-B341-BB3E-517021E99C34}" name="Mes_Actual" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{5016FF90-8769-A04D-B136-05137E7AFB23}" name="Comision_Vida" dataDxfId="8" dataCellStyle="Millares"/>
-    <tableColumn id="3" xr3:uid="{102252A9-7310-A143-8C1B-38D423400587}" name="RDA" dataDxfId="7" dataCellStyle="Millares"/>
-    <tableColumn id="2" xr3:uid="{880B07A9-3580-5D46-B925-CD1791474194}" name="Comisiones_Totales" dataDxfId="6" dataCellStyle="Porcentaje"/>
-    <tableColumn id="4" xr3:uid="{C878832A-7B09-A945-BDD8-A67805E67FA4}" name="Polizas" dataDxfId="5" dataCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{1AE401B0-A7AE-934B-8541-C25C07049142}" name="Lugar" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{44F5E9C9-8A1A-6845-A55C-0B279A2D3FC2}" name="Lugar_480" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{52181CA0-7E16-7F47-8F62-BAD94879158B}" name="Lugar_228" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{66EAD162-58C3-424A-8DBE-AE98BFADF88A}" name="Lugar_108" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{CFB17ED1-E19B-CB47-9971-B12BE317DDA8}" name="Lugar_28" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A51809F4-11CD-5745-A6AB-24C55BC64FFF}" name="Asesor" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{A433C79F-A4AE-D842-BE12-B588DDE1597D}" name="Clave" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{31682EAB-2814-9F47-B8ED-DB112E423B4C}" name="Fecha_Corte" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{324DE397-CFDB-B341-BB3E-517021E99C34}" name="Mes_Actual" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{5016FF90-8769-A04D-B136-05137E7AFB23}" name="Comision_Vida" dataDxfId="20" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{102252A9-7310-A143-8C1B-38D423400587}" name="RDA" dataDxfId="19" dataCellStyle="Millares"/>
+    <tableColumn id="2" xr3:uid="{880B07A9-3580-5D46-B925-CD1791474194}" name="Comisiones_Totales" dataDxfId="18" dataCellStyle="Porcentaje"/>
+    <tableColumn id="4" xr3:uid="{C878832A-7B09-A945-BDD8-A67805E67FA4}" name="Polizas" dataDxfId="17" dataCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{1AE401B0-A7AE-934B-8541-C25C07049142}" name="Lugar" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{44F5E9C9-8A1A-6845-A55C-0B279A2D3FC2}" name="Lugar_480" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{52181CA0-7E16-7F47-8F62-BAD94879158B}" name="Lugar_228" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{66EAD162-58C3-424A-8DBE-AE98BFADF88A}" name="Lugar_108" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{CFB17ED1-E19B-CB47-9971-B12BE317DDA8}" name="Lugar_28" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2593,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC50C02-9B29-2046-88CB-E1AF1E3CC52E}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M50"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2629,31 +1714,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2664,160 +1749,160 @@
         <v>87538</v>
       </c>
       <c r="C2" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9">
-        <v>454380.15</v>
+        <v>514650.3</v>
       </c>
       <c r="F2" s="15">
         <v>35810.25</v>
       </c>
       <c r="G2" s="16">
-        <v>649149.09</v>
+        <v>731689.9</v>
       </c>
       <c r="H2" s="10">
-        <v>39</v>
+        <v>40.5</v>
       </c>
       <c r="I2" s="11">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J2" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K2" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L2" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M2" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="19" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6">
-        <v>80122</v>
+        <v>47116</v>
       </c>
       <c r="C3" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9">
-        <v>276249.74</v>
+        <v>201449.05</v>
       </c>
       <c r="F3" s="15">
-        <v>0</v>
+        <v>150770.66</v>
       </c>
       <c r="G3" s="16">
-        <v>387362.93</v>
+        <v>449907.56</v>
       </c>
       <c r="H3" s="10">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="I3" s="11">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="J3" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K3" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L3" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M3" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="12" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6">
-        <v>110575</v>
+        <v>80122</v>
       </c>
       <c r="C4" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9">
-        <v>221429.41</v>
+        <v>288039.84000000003</v>
       </c>
       <c r="F4" s="15">
         <v>0</v>
       </c>
       <c r="G4" s="16">
-        <v>262396.28000000003</v>
+        <v>401780.73</v>
       </c>
       <c r="H4" s="10">
-        <v>12</v>
+        <v>25.5</v>
       </c>
       <c r="I4" s="11">
-        <v>478</v>
+        <v>382</v>
       </c>
       <c r="J4" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K4" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L4" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M4" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6">
-        <v>47116</v>
+        <v>110575</v>
       </c>
       <c r="C5" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E5" s="9">
-        <v>170960.37</v>
+        <v>226391.56</v>
       </c>
       <c r="F5" s="15">
-        <v>84201.68</v>
+        <v>0</v>
       </c>
       <c r="G5" s="16">
-        <v>243730.51</v>
+        <v>267358.43</v>
       </c>
       <c r="H5" s="10">
-        <v>24.5</v>
+        <v>12</v>
       </c>
       <c r="I5" s="11">
-        <v>521</v>
+        <v>622</v>
       </c>
       <c r="J5" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K5" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L5" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M5" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2828,119 +1913,119 @@
         <v>110453</v>
       </c>
       <c r="C6" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E6" s="9">
-        <v>135327.13</v>
+        <v>157827.88</v>
       </c>
       <c r="F6" s="15">
-        <v>49178.6</v>
+        <v>0</v>
       </c>
       <c r="G6" s="16">
-        <v>233062.08</v>
+        <v>257350.94</v>
       </c>
       <c r="H6" s="10">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="I6" s="11">
-        <v>561</v>
+        <v>652</v>
       </c>
       <c r="J6" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K6" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L6" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M6" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6">
         <v>107488</v>
       </c>
       <c r="C7" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E7" s="9">
-        <v>147706.76</v>
+        <v>165802.44</v>
       </c>
       <c r="F7" s="15">
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>179960.94</v>
+        <v>221447.7</v>
       </c>
       <c r="H7" s="10">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="I7" s="11">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="J7" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K7" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L7" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M7" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6">
         <v>90355</v>
       </c>
       <c r="C8" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9">
-        <v>126121.24</v>
+        <v>160376.48000000001</v>
       </c>
       <c r="F8" s="15">
-        <v>98256.320000000007</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>156168.48000000001</v>
+        <v>190805.87</v>
       </c>
       <c r="H8" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="11">
-        <v>982</v>
+        <v>955</v>
       </c>
       <c r="J8" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K8" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L8" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M8" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2951,78 +2036,78 @@
         <v>104718</v>
       </c>
       <c r="C9" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E9" s="9">
-        <v>123619.35</v>
+        <v>140019.95000000001</v>
       </c>
       <c r="F9" s="15">
-        <v>1936.8</v>
+        <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>151206.22</v>
+        <v>170196</v>
       </c>
       <c r="H9" s="10">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="I9" s="11">
-        <v>1018</v>
+        <v>1122</v>
       </c>
       <c r="J9" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K9" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L9" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M9" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>100677</v>
+        <v>108405</v>
       </c>
       <c r="C10" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9">
-        <v>73045.05</v>
+        <v>115986.47</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="16">
-        <v>90446.09</v>
+        <v>120696.11</v>
       </c>
       <c r="H10" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10" s="11">
-        <v>1882</v>
+        <v>1701</v>
       </c>
       <c r="J10" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K10" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L10" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M10" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3033,447 +2118,447 @@
         <v>108404</v>
       </c>
       <c r="C11" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9">
-        <v>69183.820000000007</v>
+        <v>74644.61</v>
       </c>
       <c r="F11" s="15">
-        <v>22297.5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>84507.93</v>
+        <v>107388.74</v>
       </c>
       <c r="H11" s="10">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I11" s="11">
-        <v>2036</v>
+        <v>1918</v>
       </c>
       <c r="J11" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K11" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L11" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M11" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>108405</v>
+        <v>100677</v>
       </c>
       <c r="C12" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9">
-        <v>79333.8</v>
+        <v>85056.47</v>
       </c>
       <c r="F12" s="15">
-        <v>188110.71</v>
+        <v>0</v>
       </c>
       <c r="G12" s="16">
-        <v>83824.740000000005</v>
+        <v>102972.41</v>
       </c>
       <c r="H12" s="10">
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="I12" s="11">
-        <v>2056</v>
+        <v>1996</v>
       </c>
       <c r="J12" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K12" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L12" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M12" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>104750</v>
+        <v>111056</v>
       </c>
       <c r="C13" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E13" s="9">
-        <v>57420.5</v>
+        <v>39496.800000000003</v>
       </c>
       <c r="F13" s="15">
-        <v>59163.98</v>
+        <v>0</v>
       </c>
       <c r="G13" s="16">
-        <v>82563</v>
+        <v>94470.42</v>
       </c>
       <c r="H13" s="10">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="I13" s="11">
-        <v>2088</v>
+        <v>2199</v>
       </c>
       <c r="J13" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K13" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L13" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M13" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B14" s="6">
-        <v>104343</v>
+        <v>113450</v>
       </c>
       <c r="C14" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E14" s="9">
-        <v>55864.25</v>
+        <v>75546</v>
       </c>
       <c r="F14" s="15">
-        <v>21299.38</v>
+        <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>81047.06</v>
+        <v>93008.35</v>
       </c>
       <c r="H14" s="10">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I14" s="11">
-        <v>2117</v>
+        <v>2239</v>
       </c>
       <c r="J14" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K14" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L14" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M14" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6">
-        <v>113450</v>
+        <v>115047</v>
       </c>
       <c r="C15" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E15" s="9">
-        <v>59027.48</v>
+        <v>76912.52</v>
       </c>
       <c r="F15" s="15">
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>76489.83</v>
+        <v>92513.69</v>
       </c>
       <c r="H15" s="10">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="I15" s="11">
-        <v>2245</v>
+        <v>2251</v>
       </c>
       <c r="J15" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K15" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L15" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M15" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="6">
-        <v>105696</v>
+        <v>104750</v>
       </c>
       <c r="C16" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E16" s="9">
-        <v>67927.710000000006</v>
+        <v>66354.710000000006</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>75938.87</v>
+        <v>92236.43</v>
       </c>
       <c r="H16" s="10">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="I16" s="11">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="J16" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K16" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L16" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M16" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="19" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B17" s="6">
-        <v>109998</v>
+        <v>104343</v>
       </c>
       <c r="C17" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E17" s="9">
-        <v>66138.55</v>
+        <v>63459.3</v>
       </c>
       <c r="F17" s="15">
         <v>0</v>
       </c>
       <c r="G17" s="16">
-        <v>70807.13</v>
+        <v>89459.25</v>
       </c>
       <c r="H17" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I17" s="11">
-        <v>2415</v>
+        <v>2329</v>
       </c>
       <c r="J17" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K17" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L17" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M17" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6">
-        <v>111056</v>
+        <v>105696</v>
       </c>
       <c r="C18" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E18" s="9">
-        <v>32963.94</v>
+        <v>74744.62</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="16">
-        <v>69900.52</v>
+        <v>82755.78</v>
       </c>
       <c r="H18" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I18" s="11">
-        <v>2445</v>
+        <v>2497</v>
       </c>
       <c r="J18" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K18" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L18" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M18" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6">
-        <v>115047</v>
+        <v>109998</v>
       </c>
       <c r="C19" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E19" s="9">
-        <v>49178.6</v>
+        <v>68639.649999999994</v>
       </c>
       <c r="F19" s="15">
         <v>0</v>
       </c>
       <c r="G19" s="16">
-        <v>63086.45</v>
+        <v>73752.81</v>
       </c>
       <c r="H19" s="10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I19" s="11">
-        <v>2676</v>
+        <v>2790</v>
       </c>
       <c r="J19" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K19" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L19" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M19" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>114100</v>
+      </c>
+      <c r="C20" s="7">
+        <v>46071</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="9">
+        <v>69147.08</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>72208.990000000005</v>
+      </c>
+      <c r="H20" s="10">
         <v>11</v>
       </c>
-      <c r="B20" s="6">
-        <v>80925</v>
-      </c>
-      <c r="C20" s="7">
-        <v>46022</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="9">
-        <v>46458.21</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>60348.09</v>
-      </c>
-      <c r="H20" s="10">
-        <v>9.5</v>
-      </c>
       <c r="I20" s="11">
-        <v>2790</v>
+        <v>2843</v>
       </c>
       <c r="J20" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K20" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L20" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M20" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" s="6">
-        <v>114100</v>
+        <v>80925</v>
       </c>
       <c r="C21" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E21" s="9">
-        <v>56321.46</v>
+        <v>51701.39</v>
       </c>
       <c r="F21" s="15">
         <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>59383.37</v>
+        <v>70286.05</v>
       </c>
       <c r="H21" s="10">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="11">
-        <v>2830</v>
+        <v>2896</v>
       </c>
       <c r="J21" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K21" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L21" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M21" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -3484,78 +2569,78 @@
         <v>113076</v>
       </c>
       <c r="C22" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E22" s="9">
-        <v>21504.22</v>
+        <v>24187.08</v>
       </c>
       <c r="F22" s="15">
         <v>0</v>
       </c>
       <c r="G22" s="16">
-        <v>56023.01</v>
+        <v>58705.87</v>
       </c>
       <c r="H22" s="10">
         <v>3</v>
       </c>
       <c r="I22" s="11">
-        <v>2967</v>
+        <v>3391</v>
       </c>
       <c r="J22" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K22" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L22" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M22" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6">
         <v>115404</v>
       </c>
       <c r="C23" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E23" s="9">
-        <v>45015.77</v>
+        <v>45804.15</v>
       </c>
       <c r="F23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="16">
-        <v>47808.2</v>
+        <v>49591.66</v>
       </c>
       <c r="H23" s="10">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I23" s="11">
-        <v>3402</v>
+        <v>3892</v>
       </c>
       <c r="J23" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K23" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L23" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M23" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3566,529 +2651,529 @@
         <v>106018</v>
       </c>
       <c r="C24" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E24" s="9">
-        <v>20907.93</v>
+        <v>26840.71</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
       </c>
       <c r="G24" s="16">
-        <v>39116.76</v>
+        <v>45049.54</v>
       </c>
       <c r="H24" s="10">
         <v>4.5</v>
       </c>
       <c r="I24" s="11">
-        <v>3969</v>
+        <v>4177</v>
       </c>
       <c r="J24" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K24" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L24" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M24" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="19" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B25" s="6">
-        <v>109819</v>
+        <v>101640</v>
       </c>
       <c r="C25" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E25" s="9">
-        <v>21245.26</v>
+        <v>20155.099999999999</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
       </c>
       <c r="G25" s="16">
-        <v>36757.050000000003</v>
+        <v>41357.78</v>
       </c>
       <c r="H25" s="10">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I25" s="11">
-        <v>4140</v>
+        <v>4423</v>
       </c>
       <c r="J25" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K25" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L25" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M25" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>63441</v>
+        <v>110105</v>
       </c>
       <c r="C26" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E26" s="9">
-        <v>27585.34</v>
+        <v>33404.26</v>
       </c>
       <c r="F26" s="15">
-        <v>40769.26</v>
+        <v>0</v>
       </c>
       <c r="G26" s="16">
-        <v>36600.65</v>
+        <v>38562.5</v>
       </c>
       <c r="H26" s="10">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I26" s="11">
-        <v>4155</v>
+        <v>4640</v>
       </c>
       <c r="J26" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K26" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L26" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M26" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="6">
-        <v>101640</v>
+        <v>116060</v>
       </c>
       <c r="C27" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E27" s="9">
-        <v>16147.94</v>
+        <v>35248.300000000003</v>
       </c>
       <c r="F27" s="15">
         <v>0</v>
       </c>
       <c r="G27" s="16">
-        <v>35879.519999999997</v>
+        <v>38447.01</v>
       </c>
       <c r="H27" s="10">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="I27" s="11">
-        <v>4208</v>
+        <v>4645</v>
       </c>
       <c r="J27" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K27" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L27" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M27" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>98797</v>
+        <v>63441</v>
       </c>
       <c r="C28" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E28" s="9">
-        <v>23146.04</v>
+        <v>29342.41</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
       </c>
       <c r="G28" s="16">
-        <v>34538.559999999998</v>
+        <v>38357.72</v>
       </c>
       <c r="H28" s="10">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="I28" s="11">
-        <v>4329</v>
+        <v>4650</v>
       </c>
       <c r="J28" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K28" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L28" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M28" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B29" s="6">
-        <v>114664</v>
+        <v>109819</v>
       </c>
       <c r="C29" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E29" s="9">
-        <v>22297.5</v>
+        <v>21245.26</v>
       </c>
       <c r="F29" s="15">
         <v>0</v>
       </c>
       <c r="G29" s="16">
-        <v>29237.64</v>
+        <v>36757.050000000003</v>
       </c>
       <c r="H29" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="11">
-        <v>4823</v>
+        <v>4766</v>
       </c>
       <c r="J29" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K29" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L29" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M29" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30" s="6">
-        <v>114157</v>
+        <v>98797</v>
       </c>
       <c r="C30" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E30" s="9">
-        <v>21299.38</v>
+        <v>23632.639999999999</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
       </c>
       <c r="G30" s="16">
-        <v>28759.66</v>
+        <v>35752.660000000003</v>
       </c>
       <c r="H30" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11">
-        <v>4873</v>
+        <v>4856</v>
       </c>
       <c r="J30" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K30" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L30" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M30" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B31" s="6">
-        <v>112083</v>
+        <v>95148</v>
       </c>
       <c r="C31" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E31" s="9">
-        <v>11030.48</v>
+        <v>19236.150000000001</v>
       </c>
       <c r="F31" s="15">
         <v>0</v>
       </c>
       <c r="G31" s="16">
-        <v>28719.8</v>
+        <v>33037.99</v>
       </c>
       <c r="H31" s="10">
         <v>2</v>
       </c>
       <c r="I31" s="11">
-        <v>4884</v>
+        <v>5111</v>
       </c>
       <c r="J31" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K31" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L31" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M31" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B32" s="6">
-        <v>110105</v>
+        <v>112083</v>
       </c>
       <c r="C32" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E32" s="9">
-        <v>28571.77</v>
+        <v>11030.48</v>
       </c>
       <c r="F32" s="15">
         <v>0</v>
       </c>
       <c r="G32" s="16">
-        <v>28571.77</v>
+        <v>31430.6</v>
       </c>
       <c r="H32" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I32" s="11">
-        <v>4899</v>
+        <v>5266</v>
       </c>
       <c r="J32" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K32" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L32" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M32" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B33" s="6">
-        <v>95148</v>
+        <v>114157</v>
       </c>
       <c r="C33" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E33" s="9">
-        <v>13775.96</v>
+        <v>23949.09</v>
       </c>
       <c r="F33" s="15">
-        <v>1858.06</v>
+        <v>0</v>
       </c>
       <c r="G33" s="16">
-        <v>24346.48</v>
+        <v>31409.37</v>
       </c>
       <c r="H33" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I33" s="11">
-        <v>5368</v>
+        <v>5272</v>
       </c>
       <c r="J33" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K33" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L33" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M33" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34" s="6">
-        <v>94205</v>
+        <v>109007</v>
       </c>
       <c r="C34" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E34" s="9">
-        <v>16936.509999999998</v>
+        <v>19824.689999999999</v>
       </c>
       <c r="F34" s="15">
         <v>0</v>
       </c>
       <c r="G34" s="16">
-        <v>21562.29</v>
+        <v>28372.720000000001</v>
       </c>
       <c r="H34" s="10">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="I34" s="11">
-        <v>5681</v>
+        <v>5577</v>
       </c>
       <c r="J34" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K34" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L34" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M34" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>109007</v>
+        <v>94156</v>
       </c>
       <c r="C35" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E35" s="9">
-        <v>16458.439999999999</v>
+        <v>22965.89</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
       </c>
       <c r="G35" s="16">
-        <v>21493.360000000001</v>
+        <v>23712.01</v>
       </c>
       <c r="H35" s="10">
         <v>2.5</v>
       </c>
       <c r="I35" s="11">
-        <v>5687</v>
+        <v>6045</v>
       </c>
       <c r="J35" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K35" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L35" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M35" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B36" s="6">
         <v>112522</v>
       </c>
       <c r="C36" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E36" s="9">
-        <v>20496.169999999998</v>
+        <v>23590.720000000001</v>
       </c>
       <c r="F36" s="15">
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>20496.169999999998</v>
+        <v>23590.720000000001</v>
       </c>
       <c r="H36" s="10">
         <v>0</v>
       </c>
       <c r="I36" s="11">
-        <v>5824</v>
+        <v>6062</v>
       </c>
       <c r="J36" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K36" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L36" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M36" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -4099,201 +3184,201 @@
         <v>114431</v>
       </c>
       <c r="C37" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E37" s="9">
-        <v>16616.7</v>
+        <v>19766.02</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
       </c>
       <c r="G37" s="16">
-        <v>19465.39</v>
+        <v>22614.71</v>
       </c>
       <c r="H37" s="10">
         <v>6.5</v>
       </c>
       <c r="I37" s="11">
-        <v>5957</v>
+        <v>6163</v>
       </c>
       <c r="J37" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K37" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L37" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M37" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B38" s="6">
-        <v>65046</v>
+        <v>111960</v>
       </c>
       <c r="C38" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E38" s="9">
-        <v>2678.35</v>
+        <v>20790.04</v>
       </c>
       <c r="F38" s="15">
-        <v>16616.7</v>
+        <v>0</v>
       </c>
       <c r="G38" s="16">
-        <v>17257.310000000001</v>
+        <v>21958.19</v>
       </c>
       <c r="H38" s="10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I38" s="11">
-        <v>6263</v>
+        <v>6244</v>
       </c>
       <c r="J38" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K38" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L38" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M38" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B39" s="6">
-        <v>111960</v>
+        <v>94205</v>
       </c>
       <c r="C39" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E39" s="9">
-        <v>16172.53</v>
+        <v>16936.509999999998</v>
       </c>
       <c r="F39" s="15">
         <v>0</v>
       </c>
       <c r="G39" s="16">
-        <v>17107.05</v>
+        <v>21562.29</v>
       </c>
       <c r="H39" s="10">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="I39" s="11">
-        <v>6285</v>
+        <v>6280</v>
       </c>
       <c r="J39" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K39" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L39" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M39" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B40" s="6">
-        <v>81044</v>
+        <v>65046</v>
       </c>
       <c r="C40" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E40" s="9">
-        <v>2621.68</v>
+        <v>3648.69</v>
       </c>
       <c r="F40" s="15">
-        <v>145379.41</v>
+        <v>0</v>
       </c>
       <c r="G40" s="16">
-        <v>15070.64</v>
+        <v>18227.650000000001</v>
       </c>
       <c r="H40" s="10">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="I40" s="11">
-        <v>6552</v>
+        <v>6672</v>
       </c>
       <c r="J40" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K40" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L40" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M40" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B41" s="6">
-        <v>116060</v>
+        <v>81044</v>
       </c>
       <c r="C41" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E41" s="9">
-        <v>14674.8</v>
+        <v>4051.75</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="16">
-        <v>14674.8</v>
+        <v>16500.71</v>
       </c>
       <c r="H41" s="10">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="I41" s="11">
-        <v>6618</v>
+        <v>6874</v>
       </c>
       <c r="J41" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K41" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L41" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M41" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -4304,424 +3389,301 @@
         <v>108658</v>
       </c>
       <c r="C42" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E42" s="9">
-        <v>10396.09</v>
+        <v>11411.93</v>
       </c>
       <c r="F42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="16">
-        <v>11072.61</v>
+        <v>14491.72</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
       </c>
       <c r="I42" s="11">
-        <v>7197</v>
+        <v>7131</v>
       </c>
       <c r="J42" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K42" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L42" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M42" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" s="6">
         <v>90177</v>
       </c>
       <c r="C43" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E43" s="13">
-        <v>10230.73</v>
+        <v>13690.51</v>
       </c>
       <c r="F43" s="15">
         <v>0</v>
       </c>
       <c r="G43" s="16">
-        <v>11002.21</v>
+        <v>14461.99</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
       </c>
       <c r="I43" s="14">
-        <v>7207</v>
+        <v>7136</v>
       </c>
       <c r="J43" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K43" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L43" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M43" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B44" s="6">
         <v>88234</v>
       </c>
       <c r="C44" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E44" s="13">
-        <v>9237.89</v>
+        <v>12161.05</v>
       </c>
       <c r="F44" s="15">
         <v>0</v>
       </c>
       <c r="G44" s="16">
-        <v>9669.07</v>
+        <v>13298.87</v>
       </c>
       <c r="H44" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I44" s="14">
-        <v>7417</v>
+        <v>7299</v>
       </c>
       <c r="J44" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K44" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L44" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M44" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="6">
         <v>102825</v>
       </c>
       <c r="C45" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E45" s="13">
-        <v>4845.7</v>
+        <v>7733.9</v>
       </c>
       <c r="F45" s="15">
-        <v>24742.26</v>
+        <v>0</v>
       </c>
       <c r="G45" s="16">
-        <v>9468.5499999999993</v>
+        <v>12356.75</v>
       </c>
       <c r="H45" s="10">
         <v>1</v>
       </c>
       <c r="I45" s="14">
-        <v>7469</v>
+        <v>7414</v>
       </c>
       <c r="J45" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K45" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L45" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M45" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B46" s="6">
-        <v>94156</v>
+        <v>81618</v>
       </c>
       <c r="C46" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E46" s="13">
-        <v>7899.09</v>
+        <v>11608.77</v>
       </c>
       <c r="F46" s="15">
         <v>0</v>
       </c>
       <c r="G46" s="16">
-        <v>7899.09</v>
+        <v>11608.77</v>
       </c>
       <c r="H46" s="10">
         <v>0</v>
       </c>
       <c r="I46" s="14">
-        <v>7728</v>
+        <v>7523</v>
       </c>
       <c r="J46" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K46" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L46" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M46" s="18">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B47" s="6">
-        <v>81618</v>
+        <v>69684</v>
       </c>
       <c r="C47" s="7">
-        <v>46022</v>
+        <v>46071</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E47" s="13">
-        <v>6593.75</v>
+        <v>0</v>
       </c>
       <c r="F47" s="15">
         <v>0</v>
       </c>
       <c r="G47" s="16">
-        <v>6593.75</v>
+        <v>1026.23</v>
       </c>
       <c r="H47" s="10">
         <v>0</v>
       </c>
       <c r="I47" s="14">
-        <v>7938</v>
+        <v>9327</v>
       </c>
       <c r="J47" s="17">
-        <v>261970.26</v>
+        <v>341565.98</v>
       </c>
       <c r="K47" s="17">
-        <v>484882.23</v>
+        <v>593550.29</v>
       </c>
       <c r="L47" s="17">
-        <v>770767.79</v>
+        <v>859943.41</v>
       </c>
       <c r="M47" s="18">
-        <v>1294230.17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="6">
-        <v>69684</v>
-      </c>
-      <c r="C48" s="7">
-        <v>46022</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="13">
-        <v>0</v>
-      </c>
-      <c r="F48" s="15">
-        <v>0</v>
-      </c>
-      <c r="G48" s="16">
-        <v>1026.23</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0</v>
-      </c>
-      <c r="I48" s="14">
-        <v>9166</v>
-      </c>
-      <c r="J48" s="17">
-        <v>261970.26</v>
-      </c>
-      <c r="K48" s="17">
-        <v>484882.23</v>
-      </c>
-      <c r="L48" s="17">
-        <v>770767.79</v>
-      </c>
-      <c r="M48" s="18">
-        <v>1294230.17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="6">
-        <v>59120</v>
-      </c>
-      <c r="C49" s="7">
-        <v>46022</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="13">
-        <v>0</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10">
-        <v>0</v>
-      </c>
-      <c r="I49" s="14">
-        <v>10471</v>
-      </c>
-      <c r="J49" s="17">
-        <v>261970.26</v>
-      </c>
-      <c r="K49" s="17">
-        <v>484882.23</v>
-      </c>
-      <c r="L49" s="17">
-        <v>770767.79</v>
-      </c>
-      <c r="M49" s="18">
-        <v>1294230.17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="21">
-        <v>103982</v>
-      </c>
-      <c r="C50" s="22">
-        <v>46022</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="13">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10">
-        <v>0</v>
-      </c>
-      <c r="I50" s="24">
-        <v>11396</v>
-      </c>
-      <c r="J50" s="25">
-        <v>261970.26</v>
-      </c>
-      <c r="K50" s="26">
-        <v>484882.23</v>
-      </c>
-      <c r="L50" s="26">
-        <v>770767.79</v>
-      </c>
-      <c r="M50" s="27">
-        <v>1294230.17</v>
+        <v>1458045.04</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="83" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="expression" dxfId="82" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="81" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="80" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="expression" dxfId="79" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="78" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="expression" dxfId="76" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D50">
-    <cfRule type="expression" dxfId="75" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="C2:D47">
+    <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F50">
-    <cfRule type="expression" dxfId="74" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="E2:F47">
+    <cfRule type="expression" dxfId="2" priority="15" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H50">
-    <cfRule type="expression" dxfId="72" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="G2:H47">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
